--- a/Testcases adactin.xlsx
+++ b/Testcases adactin.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vignesh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C194C36-C8AD-4D36-94FB-974661CE6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="4890"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Test CaseID</t>
   </si>
@@ -123,33 +129,21 @@
     <t>choosing the location</t>
   </si>
   <si>
-    <t>new york</t>
-  </si>
-  <si>
     <t>success the new user register</t>
   </si>
   <si>
     <t xml:space="preserve">success the user login </t>
   </si>
   <si>
-    <t>hotel sunshine</t>
-  </si>
-  <si>
     <t>book the hotel</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>slect the room type</t>
   </si>
   <si>
     <t>wanted no of rooms book</t>
   </si>
   <si>
-    <t>2-two</t>
-  </si>
-  <si>
     <t>check in date</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>adults per room</t>
   </si>
   <si>
-    <t>1-one</t>
-  </si>
-  <si>
     <t>childer per room</t>
   </si>
   <si>
@@ -238,13 +229,31 @@
   </si>
   <si>
     <t>kalai@2022</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Hotel Sunshine</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>2 - Two</t>
+  </si>
+  <si>
+    <t>1 - One</t>
+  </si>
+  <si>
+    <t>1 -One</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +337,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,9 +423,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,6 +475,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,25 +668,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -689,11 +742,11 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -704,14 +757,14 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -722,14 +775,14 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -740,14 +793,14 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -765,7 +818,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -783,7 +836,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -801,7 +854,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -817,7 +870,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -829,17 +882,17 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -851,7 +904,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -869,17 +922,17 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -896,14 +949,14 @@
         <v>34</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -911,17 +964,17 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -929,17 +982,17 @@
         <v>3</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -947,17 +1000,17 @@
         <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -965,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" s="8">
         <v>44595</v>
@@ -975,7 +1028,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -983,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18" s="8">
         <v>44623</v>
@@ -993,7 +1046,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1001,17 +1054,17 @@
         <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1019,17 +1072,17 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1037,43 +1090,43 @@
         <v>9</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1081,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6">
         <v>2345678876543210</v>
@@ -1091,7 +1144,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1099,17 +1152,17 @@
         <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1117,17 +1170,17 @@
         <v>4</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1135,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F26" s="6">
         <v>98</v>
@@ -1145,7 +1198,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1153,48 +1206,48 @@
         <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J28" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1202,24 +1255,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
